--- a/_data/IMXUSDT_4h.xlsx
+++ b/_data/IMXUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,646 @@
         <v>615382.5</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>1.435</v>
+      </c>
+      <c r="C1085">
+        <v>1.455</v>
+      </c>
+      <c r="D1085">
+        <v>1.325</v>
+      </c>
+      <c r="E1085">
+        <v>1.335</v>
+      </c>
+      <c r="F1085">
+        <v>1312671.85</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>1.335</v>
+      </c>
+      <c r="C1086">
+        <v>1.408</v>
+      </c>
+      <c r="D1086">
+        <v>1.324</v>
+      </c>
+      <c r="E1086">
+        <v>1.366</v>
+      </c>
+      <c r="F1086">
+        <v>679585.28</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>1.366</v>
+      </c>
+      <c r="C1087">
+        <v>1.427</v>
+      </c>
+      <c r="D1087">
+        <v>1.364</v>
+      </c>
+      <c r="E1087">
+        <v>1.426</v>
+      </c>
+      <c r="F1087">
+        <v>490037.79</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>1.426</v>
+      </c>
+      <c r="C1088">
+        <v>1.509</v>
+      </c>
+      <c r="D1088">
+        <v>1.414</v>
+      </c>
+      <c r="E1088">
+        <v>1.467</v>
+      </c>
+      <c r="F1088">
+        <v>1176305.85</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>1.467</v>
+      </c>
+      <c r="C1089">
+        <v>1.49</v>
+      </c>
+      <c r="D1089">
+        <v>1.457</v>
+      </c>
+      <c r="E1089">
+        <v>1.475</v>
+      </c>
+      <c r="F1089">
+        <v>451056.44</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>1.476</v>
+      </c>
+      <c r="C1090">
+        <v>1.487</v>
+      </c>
+      <c r="D1090">
+        <v>1.45</v>
+      </c>
+      <c r="E1090">
+        <v>1.465</v>
+      </c>
+      <c r="F1090">
+        <v>470529.31</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>1.465</v>
+      </c>
+      <c r="C1091">
+        <v>1.465</v>
+      </c>
+      <c r="D1091">
+        <v>1.366</v>
+      </c>
+      <c r="E1091">
+        <v>1.371</v>
+      </c>
+      <c r="F1091">
+        <v>1283913.99</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>1.372</v>
+      </c>
+      <c r="C1092">
+        <v>1.372</v>
+      </c>
+      <c r="D1092">
+        <v>1.337</v>
+      </c>
+      <c r="E1092">
+        <v>1.352</v>
+      </c>
+      <c r="F1092">
+        <v>444145.47</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>1.352</v>
+      </c>
+      <c r="C1093">
+        <v>1.368</v>
+      </c>
+      <c r="D1093">
+        <v>1.343</v>
+      </c>
+      <c r="E1093">
+        <v>1.361</v>
+      </c>
+      <c r="F1093">
+        <v>140031.81</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>1.362</v>
+      </c>
+      <c r="C1094">
+        <v>1.363</v>
+      </c>
+      <c r="D1094">
+        <v>1.336</v>
+      </c>
+      <c r="E1094">
+        <v>1.338</v>
+      </c>
+      <c r="F1094">
+        <v>367752.88</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>1.338</v>
+      </c>
+      <c r="C1095">
+        <v>1.349</v>
+      </c>
+      <c r="D1095">
+        <v>1.324</v>
+      </c>
+      <c r="E1095">
+        <v>1.335</v>
+      </c>
+      <c r="F1095">
+        <v>437562.48</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>1.334</v>
+      </c>
+      <c r="C1096">
+        <v>1.335</v>
+      </c>
+      <c r="D1096">
+        <v>1.304</v>
+      </c>
+      <c r="E1096">
+        <v>1.318</v>
+      </c>
+      <c r="F1096">
+        <v>534543.2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>1.317</v>
+      </c>
+      <c r="C1097">
+        <v>1.324</v>
+      </c>
+      <c r="D1097">
+        <v>1.276</v>
+      </c>
+      <c r="E1097">
+        <v>1.319</v>
+      </c>
+      <c r="F1097">
+        <v>618235.34</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>1.319</v>
+      </c>
+      <c r="C1098">
+        <v>1.371</v>
+      </c>
+      <c r="D1098">
+        <v>1.309</v>
+      </c>
+      <c r="E1098">
+        <v>1.334</v>
+      </c>
+      <c r="F1098">
+        <v>1114321.96</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>1.334</v>
+      </c>
+      <c r="C1099">
+        <v>1.346</v>
+      </c>
+      <c r="D1099">
+        <v>1.257</v>
+      </c>
+      <c r="E1099">
+        <v>1.287</v>
+      </c>
+      <c r="F1099">
+        <v>1106161.51</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>1.286</v>
+      </c>
+      <c r="C1100">
+        <v>1.297</v>
+      </c>
+      <c r="D1100">
+        <v>1.261</v>
+      </c>
+      <c r="E1100">
+        <v>1.281</v>
+      </c>
+      <c r="F1100">
+        <v>438244.37</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>1.281</v>
+      </c>
+      <c r="C1101">
+        <v>1.282</v>
+      </c>
+      <c r="D1101">
+        <v>1.243</v>
+      </c>
+      <c r="E1101">
+        <v>1.246</v>
+      </c>
+      <c r="F1101">
+        <v>928405.01</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>1.245</v>
+      </c>
+      <c r="C1102">
+        <v>1.293</v>
+      </c>
+      <c r="D1102">
+        <v>1.238</v>
+      </c>
+      <c r="E1102">
+        <v>1.27</v>
+      </c>
+      <c r="F1102">
+        <v>1005552.52</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>1.269</v>
+      </c>
+      <c r="C1103">
+        <v>1.278</v>
+      </c>
+      <c r="D1103">
+        <v>1.236</v>
+      </c>
+      <c r="E1103">
+        <v>1.249</v>
+      </c>
+      <c r="F1103">
+        <v>451272.29</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>1.249</v>
+      </c>
+      <c r="C1104">
+        <v>1.266</v>
+      </c>
+      <c r="D1104">
+        <v>1.236</v>
+      </c>
+      <c r="E1104">
+        <v>1.248</v>
+      </c>
+      <c r="F1104">
+        <v>479026.58</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>1.248</v>
+      </c>
+      <c r="C1105">
+        <v>1.257</v>
+      </c>
+      <c r="D1105">
+        <v>1.246</v>
+      </c>
+      <c r="E1105">
+        <v>1.255</v>
+      </c>
+      <c r="F1105">
+        <v>18111.08</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>1.268</v>
+      </c>
+      <c r="C1106">
+        <v>1.287</v>
+      </c>
+      <c r="D1106">
+        <v>1.254</v>
+      </c>
+      <c r="E1106">
+        <v>1.257</v>
+      </c>
+      <c r="F1106">
+        <v>498418.6</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>1.258</v>
+      </c>
+      <c r="C1107">
+        <v>1.264</v>
+      </c>
+      <c r="D1107">
+        <v>1.244</v>
+      </c>
+      <c r="E1107">
+        <v>1.253</v>
+      </c>
+      <c r="F1107">
+        <v>219458.47</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>1.253</v>
+      </c>
+      <c r="C1108">
+        <v>1.254</v>
+      </c>
+      <c r="D1108">
+        <v>1.222</v>
+      </c>
+      <c r="E1108">
+        <v>1.225</v>
+      </c>
+      <c r="F1108">
+        <v>510235.11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>1.225</v>
+      </c>
+      <c r="C1109">
+        <v>1.236</v>
+      </c>
+      <c r="D1109">
+        <v>1.171</v>
+      </c>
+      <c r="E1109">
+        <v>1.174</v>
+      </c>
+      <c r="F1109">
+        <v>1065157.81</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>1.174</v>
+      </c>
+      <c r="C1110">
+        <v>1.2</v>
+      </c>
+      <c r="D1110">
+        <v>1.17</v>
+      </c>
+      <c r="E1110">
+        <v>1.188</v>
+      </c>
+      <c r="F1110">
+        <v>644460.8</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>1.187</v>
+      </c>
+      <c r="C1111">
+        <v>1.193</v>
+      </c>
+      <c r="D1111">
+        <v>1.169</v>
+      </c>
+      <c r="E1111">
+        <v>1.172</v>
+      </c>
+      <c r="F1111">
+        <v>364023.89</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>1.172</v>
+      </c>
+      <c r="C1112">
+        <v>1.187</v>
+      </c>
+      <c r="D1112">
+        <v>1.121</v>
+      </c>
+      <c r="E1112">
+        <v>1.183</v>
+      </c>
+      <c r="F1112">
+        <v>1095443.53</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>1.183</v>
+      </c>
+      <c r="C1113">
+        <v>1.209</v>
+      </c>
+      <c r="D1113">
+        <v>1.177</v>
+      </c>
+      <c r="E1113">
+        <v>1.207</v>
+      </c>
+      <c r="F1113">
+        <v>785335.5699999999</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>1.208</v>
+      </c>
+      <c r="C1114">
+        <v>1.208</v>
+      </c>
+      <c r="D1114">
+        <v>1.2</v>
+      </c>
+      <c r="E1114">
+        <v>1.208</v>
+      </c>
+      <c r="F1114">
+        <v>35575.53</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>1.199</v>
+      </c>
+      <c r="C1115">
+        <v>1.24</v>
+      </c>
+      <c r="D1115">
+        <v>1.196</v>
+      </c>
+      <c r="E1115">
+        <v>1.239</v>
+      </c>
+      <c r="F1115">
+        <v>639428.25</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>1.239</v>
+      </c>
+      <c r="C1116">
+        <v>1.311</v>
+      </c>
+      <c r="D1116">
+        <v>1.233</v>
+      </c>
+      <c r="E1116">
+        <v>1.238</v>
+      </c>
+      <c r="F1116">
+        <v>1757333.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
